--- a/docs/Plantillas/Plantilla_Rpto_Operaciones_InformePorFechaPM.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_Operaciones_InformePorFechaPM.xlsx
@@ -451,7 +451,7 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>

--- a/docs/Plantillas/Plantilla_Rpto_Operaciones_InformePorFechaPM.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_Operaciones_InformePorFechaPM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Año</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>% OCUPACION</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -513,7 +516,9 @@
       <c r="I8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
